--- a/populate_data_app/files/generated-energy-usage-by-smart-appliances.xlsx
+++ b/populate_data_app/files/generated-energy-usage-by-smart-appliances.xlsx
@@ -438,16 +438,16 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H2">
-        <v>129.45205479452054</v>
+        <v>258.90410958904107</v>
       </c>
       <c r="I2" t="str">
-        <v>6/3/2022</v>
+        <v>28/11/2021</v>
       </c>
       <c r="J2" t="str">
-        <v>Saturday</v>
+        <v>Sunday</v>
       </c>
       <c r="K2" t="str">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         <v>21.575342465753423</v>
       </c>
       <c r="I3" t="str">
-        <v>6/3/2022</v>
+        <v>28/11/2021</v>
       </c>
       <c r="J3" t="str">
-        <v>Saturday</v>
+        <v>Sunday</v>
       </c>
       <c r="K3" t="str">
         <v>1</v>
@@ -508,16 +508,16 @@
         <v>0.4191780821917808</v>
       </c>
       <c r="H4">
-        <v>146.57534246575344</v>
+        <v>73.28767123287672</v>
       </c>
       <c r="I4" t="str">
-        <v>6/3/2022</v>
+        <v>28/11/2021</v>
       </c>
       <c r="J4" t="str">
-        <v>Saturday</v>
+        <v>Sunday</v>
       </c>
       <c r="K4" t="str">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         <v>43.15068493150685</v>
       </c>
       <c r="I5" t="str">
-        <v>6/3/2022</v>
+        <v>28/11/2021</v>
       </c>
       <c r="J5" t="str">
-        <v>Saturday</v>
+        <v>Sunday</v>
       </c>
       <c r="K5" t="str">
         <v>6</v>
@@ -578,16 +578,16 @@
         <v>0.14520547945205478</v>
       </c>
       <c r="H6">
-        <v>101.36986301369863</v>
+        <v>50.68493150684932</v>
       </c>
       <c r="I6" t="str">
-        <v>6/3/2022</v>
+        <v>28/11/2021</v>
       </c>
       <c r="J6" t="str">
-        <v>Saturday</v>
+        <v>Sunday</v>
       </c>
       <c r="K6" t="str">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -613,16 +613,16 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="H7">
-        <v>2.28310502283105</v>
+        <v>0</v>
       </c>
       <c r="I7" t="str">
-        <v>6/3/2022</v>
+        <v>28/11/2021</v>
       </c>
       <c r="J7" t="str">
-        <v>Saturday</v>
+        <v>Sunday</v>
       </c>
       <c r="K7" t="str">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -648,16 +648,16 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="H8">
-        <v>19.178082191780824</v>
+        <v>9.589041095890412</v>
       </c>
       <c r="I8" t="str">
-        <v>6/3/2022</v>
+        <v>28/11/2021</v>
       </c>
       <c r="J8" t="str">
-        <v>Saturday</v>
+        <v>Sunday</v>
       </c>
       <c r="K8" t="str">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -683,16 +683,16 @@
         <v>0.010958904109589041</v>
       </c>
       <c r="H9">
-        <v>8.21917808219178</v>
+        <v>4.10958904109589</v>
       </c>
       <c r="I9" t="str">
-        <v>6/3/2022</v>
+        <v>28/11/2021</v>
       </c>
       <c r="J9" t="str">
-        <v>Saturday</v>
+        <v>Sunday</v>
       </c>
       <c r="K9" t="str">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -721,10 +721,10 @@
         <v>129.45205479452054</v>
       </c>
       <c r="I10" t="str">
-        <v>6/3/2022</v>
+        <v>29/11/2021</v>
       </c>
       <c r="J10" t="str">
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="K10" t="str">
         <v>6</v>
@@ -756,10 +756,10 @@
         <v>21.575342465753423</v>
       </c>
       <c r="I11" t="str">
-        <v>6/3/2022</v>
+        <v>29/11/2021</v>
       </c>
       <c r="J11" t="str">
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="K11" t="str">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.4191780821917808</v>
       </c>
       <c r="H12">
-        <v>146.57534246575344</v>
+        <v>73.28767123287672</v>
       </c>
       <c r="I12" t="str">
-        <v>6/3/2022</v>
+        <v>29/11/2021</v>
       </c>
       <c r="J12" t="str">
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="K12" t="str">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -826,10 +826,10 @@
         <v>43.15068493150685</v>
       </c>
       <c r="I13" t="str">
-        <v>6/3/2022</v>
+        <v>29/11/2021</v>
       </c>
       <c r="J13" t="str">
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="K13" t="str">
         <v>6</v>
@@ -858,16 +858,16 @@
         <v>0.14520547945205478</v>
       </c>
       <c r="H14">
-        <v>101.36986301369863</v>
+        <v>12.67123287671233</v>
       </c>
       <c r="I14" t="str">
-        <v>6/3/2022</v>
+        <v>29/11/2021</v>
       </c>
       <c r="J14" t="str">
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="K14" t="str">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -896,10 +896,10 @@
         <v>2.28310502283105</v>
       </c>
       <c r="I15" t="str">
-        <v>6/3/2022</v>
+        <v>29/11/2021</v>
       </c>
       <c r="J15" t="str">
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="K15" t="str">
         <v>1</v>
@@ -928,16 +928,16 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="H16">
-        <v>19.178082191780824</v>
+        <v>0</v>
       </c>
       <c r="I16" t="str">
-        <v>6/3/2022</v>
+        <v>29/11/2021</v>
       </c>
       <c r="J16" t="str">
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="K16" t="str">
-        <v>24</v>
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -963,16 +963,16 @@
         <v>0.010958904109589041</v>
       </c>
       <c r="H17">
-        <v>8.21917808219178</v>
+        <v>4.10958904109589</v>
       </c>
       <c r="I17" t="str">
-        <v>6/3/2022</v>
+        <v>29/11/2021</v>
       </c>
       <c r="J17" t="str">
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="K17" t="str">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -1001,10 +1001,10 @@
         <v>129.45205479452054</v>
       </c>
       <c r="I18" t="str">
-        <v>6/3/2022</v>
+        <v>1/12/2021</v>
       </c>
       <c r="J18" t="str">
-        <v>Saturday</v>
+        <v>Tuesday</v>
       </c>
       <c r="K18" t="str">
         <v>6</v>
@@ -1036,10 +1036,10 @@
         <v>21.575342465753423</v>
       </c>
       <c r="I19" t="str">
-        <v>6/3/2022</v>
+        <v>1/12/2021</v>
       </c>
       <c r="J19" t="str">
-        <v>Saturday</v>
+        <v>Tuesday</v>
       </c>
       <c r="K19" t="str">
         <v>1</v>
@@ -1068,16 +1068,16 @@
         <v>0.4191780821917808</v>
       </c>
       <c r="H20">
-        <v>146.57534246575344</v>
+        <v>85.50228310502284</v>
       </c>
       <c r="I20" t="str">
-        <v>6/3/2022</v>
+        <v>1/12/2021</v>
       </c>
       <c r="J20" t="str">
-        <v>Saturday</v>
+        <v>Tuesday</v>
       </c>
       <c r="K20" t="str">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1103,16 +1103,16 @@
         <v>0.2465753424657534</v>
       </c>
       <c r="H21">
-        <v>43.15068493150685</v>
+        <v>50.34246575342466</v>
       </c>
       <c r="I21" t="str">
-        <v>6/3/2022</v>
+        <v>1/12/2021</v>
       </c>
       <c r="J21" t="str">
-        <v>Saturday</v>
+        <v>Tuesday</v>
       </c>
       <c r="K21" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1138,16 +1138,16 @@
         <v>0.14520547945205478</v>
       </c>
       <c r="H22">
-        <v>101.36986301369863</v>
+        <v>25.34246575342466</v>
       </c>
       <c r="I22" t="str">
-        <v>6/3/2022</v>
+        <v>1/12/2021</v>
       </c>
       <c r="J22" t="str">
-        <v>Saturday</v>
+        <v>Tuesday</v>
       </c>
       <c r="K22" t="str">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1173,16 +1173,16 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="H23">
-        <v>2.28310502283105</v>
+        <v>4.5662100456621</v>
       </c>
       <c r="I23" t="str">
-        <v>6/3/2022</v>
+        <v>1/12/2021</v>
       </c>
       <c r="J23" t="str">
-        <v>Saturday</v>
+        <v>Tuesday</v>
       </c>
       <c r="K23" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1208,16 +1208,16 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="H24">
-        <v>19.178082191780824</v>
+        <v>9.589041095890412</v>
       </c>
       <c r="I24" t="str">
-        <v>6/3/2022</v>
+        <v>1/12/2021</v>
       </c>
       <c r="J24" t="str">
-        <v>Saturday</v>
+        <v>Tuesday</v>
       </c>
       <c r="K24" t="str">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1246,10 +1246,10 @@
         <v>8.21917808219178</v>
       </c>
       <c r="I25" t="str">
-        <v>6/3/2022</v>
+        <v>1/12/2021</v>
       </c>
       <c r="J25" t="str">
-        <v>Saturday</v>
+        <v>Tuesday</v>
       </c>
       <c r="K25" t="str">
         <v>24</v>
@@ -1278,16 +1278,16 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H26">
-        <v>129.45205479452054</v>
+        <v>151.02739726027397</v>
       </c>
       <c r="I26" t="str">
-        <v>6/3/2022</v>
+        <v>2/12/2021</v>
       </c>
       <c r="J26" t="str">
-        <v>Saturday</v>
+        <v>Wednesday</v>
       </c>
       <c r="K26" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1316,10 +1316,10 @@
         <v>21.575342465753423</v>
       </c>
       <c r="I27" t="str">
-        <v>6/3/2022</v>
+        <v>2/12/2021</v>
       </c>
       <c r="J27" t="str">
-        <v>Saturday</v>
+        <v>Wednesday</v>
       </c>
       <c r="K27" t="str">
         <v>1</v>
@@ -1351,10 +1351,10 @@
         <v>146.57534246575344</v>
       </c>
       <c r="I28" t="str">
-        <v>6/3/2022</v>
+        <v>2/12/2021</v>
       </c>
       <c r="J28" t="str">
-        <v>Saturday</v>
+        <v>Wednesday</v>
       </c>
       <c r="K28" t="str">
         <v>12</v>
@@ -1383,16 +1383,16 @@
         <v>0.2465753424657534</v>
       </c>
       <c r="H29">
-        <v>43.15068493150685</v>
+        <v>50.34246575342466</v>
       </c>
       <c r="I29" t="str">
-        <v>6/3/2022</v>
+        <v>2/12/2021</v>
       </c>
       <c r="J29" t="str">
-        <v>Saturday</v>
+        <v>Wednesday</v>
       </c>
       <c r="K29" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1418,16 +1418,16 @@
         <v>0.14520547945205478</v>
       </c>
       <c r="H30">
-        <v>101.36986301369863</v>
+        <v>25.34246575342466</v>
       </c>
       <c r="I30" t="str">
-        <v>6/3/2022</v>
+        <v>2/12/2021</v>
       </c>
       <c r="J30" t="str">
-        <v>Saturday</v>
+        <v>Wednesday</v>
       </c>
       <c r="K30" t="str">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1456,10 +1456,10 @@
         <v>2.28310502283105</v>
       </c>
       <c r="I31" t="str">
-        <v>6/3/2022</v>
+        <v>2/12/2021</v>
       </c>
       <c r="J31" t="str">
-        <v>Saturday</v>
+        <v>Wednesday</v>
       </c>
       <c r="K31" t="str">
         <v>1</v>
@@ -1488,16 +1488,16 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="H32">
-        <v>19.178082191780824</v>
+        <v>9.589041095890412</v>
       </c>
       <c r="I32" t="str">
-        <v>6/3/2022</v>
+        <v>2/12/2021</v>
       </c>
       <c r="J32" t="str">
-        <v>Saturday</v>
+        <v>Wednesday</v>
       </c>
       <c r="K32" t="str">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1526,10 +1526,10 @@
         <v>8.21917808219178</v>
       </c>
       <c r="I33" t="str">
-        <v>6/3/2022</v>
+        <v>2/12/2021</v>
       </c>
       <c r="J33" t="str">
-        <v>Saturday</v>
+        <v>Wednesday</v>
       </c>
       <c r="K33" t="str">
         <v>24</v>
@@ -1561,10 +1561,10 @@
         <v>129.45205479452054</v>
       </c>
       <c r="I34" t="str">
-        <v>6/3/2022</v>
+        <v>3/12/2021</v>
       </c>
       <c r="J34" t="str">
-        <v>Saturday</v>
+        <v>Thursday</v>
       </c>
       <c r="K34" t="str">
         <v>6</v>
@@ -1596,10 +1596,10 @@
         <v>21.575342465753423</v>
       </c>
       <c r="I35" t="str">
-        <v>6/3/2022</v>
+        <v>3/12/2021</v>
       </c>
       <c r="J35" t="str">
-        <v>Saturday</v>
+        <v>Thursday</v>
       </c>
       <c r="K35" t="str">
         <v>1</v>
@@ -1631,10 +1631,10 @@
         <v>146.57534246575344</v>
       </c>
       <c r="I36" t="str">
-        <v>6/3/2022</v>
+        <v>3/12/2021</v>
       </c>
       <c r="J36" t="str">
-        <v>Saturday</v>
+        <v>Thursday</v>
       </c>
       <c r="K36" t="str">
         <v>12</v>
@@ -1663,16 +1663,16 @@
         <v>0.2465753424657534</v>
       </c>
       <c r="H37">
-        <v>43.15068493150685</v>
+        <v>50.34246575342466</v>
       </c>
       <c r="I37" t="str">
-        <v>6/3/2022</v>
+        <v>3/12/2021</v>
       </c>
       <c r="J37" t="str">
-        <v>Saturday</v>
+        <v>Thursday</v>
       </c>
       <c r="K37" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1698,16 +1698,16 @@
         <v>0.14520547945205478</v>
       </c>
       <c r="H38">
-        <v>101.36986301369863</v>
+        <v>25.34246575342466</v>
       </c>
       <c r="I38" t="str">
-        <v>6/3/2022</v>
+        <v>3/12/2021</v>
       </c>
       <c r="J38" t="str">
-        <v>Saturday</v>
+        <v>Thursday</v>
       </c>
       <c r="K38" t="str">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -1736,10 +1736,10 @@
         <v>2.28310502283105</v>
       </c>
       <c r="I39" t="str">
-        <v>6/3/2022</v>
+        <v>3/12/2021</v>
       </c>
       <c r="J39" t="str">
-        <v>Saturday</v>
+        <v>Thursday</v>
       </c>
       <c r="K39" t="str">
         <v>1</v>
@@ -1768,16 +1768,16 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="H40">
-        <v>19.178082191780824</v>
+        <v>9.589041095890412</v>
       </c>
       <c r="I40" t="str">
-        <v>6/3/2022</v>
+        <v>3/12/2021</v>
       </c>
       <c r="J40" t="str">
-        <v>Saturday</v>
+        <v>Thursday</v>
       </c>
       <c r="K40" t="str">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1806,10 +1806,10 @@
         <v>8.21917808219178</v>
       </c>
       <c r="I41" t="str">
-        <v>6/3/2022</v>
+        <v>3/12/2021</v>
       </c>
       <c r="J41" t="str">
-        <v>Saturday</v>
+        <v>Thursday</v>
       </c>
       <c r="K41" t="str">
         <v>24</v>
@@ -1838,16 +1838,16 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H42">
-        <v>129.45205479452054</v>
+        <v>151.02739726027397</v>
       </c>
       <c r="I42" t="str">
-        <v>6/3/2022</v>
+        <v>4/12/2021</v>
       </c>
       <c r="J42" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="K42" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -1876,10 +1876,10 @@
         <v>21.575342465753423</v>
       </c>
       <c r="I43" t="str">
-        <v>6/3/2022</v>
+        <v>4/12/2021</v>
       </c>
       <c r="J43" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="K43" t="str">
         <v>1</v>
@@ -1908,16 +1908,16 @@
         <v>0.4191780821917808</v>
       </c>
       <c r="H44">
-        <v>146.57534246575344</v>
+        <v>73.28767123287672</v>
       </c>
       <c r="I44" t="str">
-        <v>6/3/2022</v>
+        <v>4/12/2021</v>
       </c>
       <c r="J44" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="K44" t="str">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -1943,16 +1943,16 @@
         <v>0.2465753424657534</v>
       </c>
       <c r="H45">
-        <v>43.15068493150685</v>
+        <v>50.34246575342466</v>
       </c>
       <c r="I45" t="str">
-        <v>6/3/2022</v>
+        <v>4/12/2021</v>
       </c>
       <c r="J45" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="K45" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -1978,16 +1978,16 @@
         <v>0.14520547945205478</v>
       </c>
       <c r="H46">
-        <v>101.36986301369863</v>
+        <v>25.34246575342466</v>
       </c>
       <c r="I46" t="str">
-        <v>6/3/2022</v>
+        <v>4/12/2021</v>
       </c>
       <c r="J46" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="K46" t="str">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2016,10 +2016,10 @@
         <v>2.28310502283105</v>
       </c>
       <c r="I47" t="str">
-        <v>6/3/2022</v>
+        <v>4/12/2021</v>
       </c>
       <c r="J47" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="K47" t="str">
         <v>1</v>
@@ -2048,16 +2048,16 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="H48">
-        <v>19.178082191780824</v>
+        <v>9.589041095890412</v>
       </c>
       <c r="I48" t="str">
-        <v>6/3/2022</v>
+        <v>4/12/2021</v>
       </c>
       <c r="J48" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="K48" t="str">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -2086,10 +2086,10 @@
         <v>8.21917808219178</v>
       </c>
       <c r="I49" t="str">
-        <v>6/3/2022</v>
+        <v>4/12/2021</v>
       </c>
       <c r="J49" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="K49" t="str">
         <v>24</v>
@@ -2118,16 +2118,16 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H50">
-        <v>129.45205479452054</v>
+        <v>151.02739726027397</v>
       </c>
       <c r="I50" t="str">
-        <v>6/3/2022</v>
+        <v>5/12/2021</v>
       </c>
       <c r="J50" t="str">
         <v>Saturday</v>
       </c>
       <c r="K50" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -2156,7 +2156,7 @@
         <v>21.575342465753423</v>
       </c>
       <c r="I51" t="str">
-        <v>6/3/2022</v>
+        <v>5/12/2021</v>
       </c>
       <c r="J51" t="str">
         <v>Saturday</v>
@@ -2191,7 +2191,7 @@
         <v>146.57534246575344</v>
       </c>
       <c r="I52" t="str">
-        <v>6/3/2022</v>
+        <v>5/12/2021</v>
       </c>
       <c r="J52" t="str">
         <v>Saturday</v>
@@ -2223,16 +2223,16 @@
         <v>0.2465753424657534</v>
       </c>
       <c r="H53">
-        <v>43.15068493150685</v>
+        <v>50.34246575342466</v>
       </c>
       <c r="I53" t="str">
-        <v>6/3/2022</v>
+        <v>5/12/2021</v>
       </c>
       <c r="J53" t="str">
         <v>Saturday</v>
       </c>
       <c r="K53" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2258,16 +2258,16 @@
         <v>0.14520547945205478</v>
       </c>
       <c r="H54">
-        <v>101.36986301369863</v>
+        <v>25.34246575342466</v>
       </c>
       <c r="I54" t="str">
-        <v>6/3/2022</v>
+        <v>5/12/2021</v>
       </c>
       <c r="J54" t="str">
         <v>Saturday</v>
       </c>
       <c r="K54" t="str">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -2296,7 +2296,7 @@
         <v>2.28310502283105</v>
       </c>
       <c r="I55" t="str">
-        <v>6/3/2022</v>
+        <v>5/12/2021</v>
       </c>
       <c r="J55" t="str">
         <v>Saturday</v>
@@ -2328,16 +2328,16 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="H56">
-        <v>19.178082191780824</v>
+        <v>9.589041095890412</v>
       </c>
       <c r="I56" t="str">
-        <v>6/3/2022</v>
+        <v>5/12/2021</v>
       </c>
       <c r="J56" t="str">
         <v>Saturday</v>
       </c>
       <c r="K56" t="str">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -2366,7 +2366,7 @@
         <v>8.21917808219178</v>
       </c>
       <c r="I57" t="str">
-        <v>6/3/2022</v>
+        <v>5/12/2021</v>
       </c>
       <c r="J57" t="str">
         <v>Saturday</v>

--- a/populate_data_app/files/generated-energy-usage-by-smart-appliances.xlsx
+++ b/populate_data_app/files/generated-energy-usage-by-smart-appliances.xlsx
@@ -438,7 +438,7 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H2">
-        <v>258.90410958904107</v>
+        <v>64.72602739726027</v>
       </c>
       <c r="I2" t="str">
         <v>28/11/2021</v>
@@ -447,7 +447,7 @@
         <v>Sunday</v>
       </c>
       <c r="K2" t="str">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H3">
-        <v>21.575342465753423</v>
+        <v>64.72602739726027</v>
       </c>
       <c r="I3" t="str">
         <v>28/11/2021</v>
@@ -482,7 +482,7 @@
         <v>Sunday</v>
       </c>
       <c r="K3" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0.4191780821917808</v>
       </c>
       <c r="H4">
-        <v>73.28767123287672</v>
+        <v>36.64383561643836</v>
       </c>
       <c r="I4" t="str">
         <v>28/11/2021</v>
@@ -517,7 +517,7 @@
         <v>Sunday</v>
       </c>
       <c r="K4" t="str">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -543,7 +543,7 @@
         <v>0.2465753424657534</v>
       </c>
       <c r="H5">
-        <v>43.15068493150685</v>
+        <v>21.575342465753426</v>
       </c>
       <c r="I5" t="str">
         <v>28/11/2021</v>
@@ -552,7 +552,7 @@
         <v>Sunday</v>
       </c>
       <c r="K5" t="str">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -578,7 +578,7 @@
         <v>0.14520547945205478</v>
       </c>
       <c r="H6">
-        <v>50.68493150684932</v>
+        <v>12.67123287671233</v>
       </c>
       <c r="I6" t="str">
         <v>28/11/2021</v>
@@ -587,7 +587,7 @@
         <v>Sunday</v>
       </c>
       <c r="K6" t="str">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -613,7 +613,7 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6.8493150684931505</v>
       </c>
       <c r="I7" t="str">
         <v>28/11/2021</v>
@@ -622,7 +622,7 @@
         <v>Sunday</v>
       </c>
       <c r="K7" t="str">
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -648,7 +648,7 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="H8">
-        <v>9.589041095890412</v>
+        <v>2.397260273972603</v>
       </c>
       <c r="I8" t="str">
         <v>28/11/2021</v>
@@ -657,7 +657,7 @@
         <v>Sunday</v>
       </c>
       <c r="K8" t="str">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -683,7 +683,7 @@
         <v>0.010958904109589041</v>
       </c>
       <c r="H9">
-        <v>4.10958904109589</v>
+        <v>1.0273972602739725</v>
       </c>
       <c r="I9" t="str">
         <v>28/11/2021</v>
@@ -692,7 +692,7 @@
         <v>Sunday</v>
       </c>
       <c r="K9" t="str">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -718,7 +718,7 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H10">
-        <v>129.45205479452054</v>
+        <v>64.72602739726027</v>
       </c>
       <c r="I10" t="str">
         <v>29/11/2021</v>
@@ -727,7 +727,7 @@
         <v>Monday</v>
       </c>
       <c r="K10" t="str">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -753,7 +753,7 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H11">
-        <v>21.575342465753423</v>
+        <v>64.72602739726027</v>
       </c>
       <c r="I11" t="str">
         <v>29/11/2021</v>
@@ -762,7 +762,7 @@
         <v>Monday</v>
       </c>
       <c r="K11" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -788,7 +788,7 @@
         <v>0.4191780821917808</v>
       </c>
       <c r="H12">
-        <v>73.28767123287672</v>
+        <v>36.64383561643836</v>
       </c>
       <c r="I12" t="str">
         <v>29/11/2021</v>
@@ -797,7 +797,7 @@
         <v>Monday</v>
       </c>
       <c r="K12" t="str">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -823,7 +823,7 @@
         <v>0.2465753424657534</v>
       </c>
       <c r="H13">
-        <v>43.15068493150685</v>
+        <v>21.575342465753426</v>
       </c>
       <c r="I13" t="str">
         <v>29/11/2021</v>
@@ -832,7 +832,7 @@
         <v>Monday</v>
       </c>
       <c r="K13" t="str">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -858,7 +858,7 @@
         <v>0.14520547945205478</v>
       </c>
       <c r="H14">
-        <v>12.67123287671233</v>
+        <v>139.38356164383563</v>
       </c>
       <c r="I14" t="str">
         <v>29/11/2021</v>
@@ -867,7 +867,7 @@
         <v>Monday</v>
       </c>
       <c r="K14" t="str">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -893,7 +893,7 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="H15">
-        <v>2.28310502283105</v>
+        <v>6.8493150684931505</v>
       </c>
       <c r="I15" t="str">
         <v>29/11/2021</v>
@@ -902,7 +902,7 @@
         <v>Monday</v>
       </c>
       <c r="K15" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -928,7 +928,7 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.397260273972603</v>
       </c>
       <c r="I16" t="str">
         <v>29/11/2021</v>
@@ -937,7 +937,7 @@
         <v>Monday</v>
       </c>
       <c r="K16" t="str">
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -963,7 +963,7 @@
         <v>0.010958904109589041</v>
       </c>
       <c r="H17">
-        <v>4.10958904109589</v>
+        <v>1.0273972602739725</v>
       </c>
       <c r="I17" t="str">
         <v>29/11/2021</v>
@@ -972,7 +972,7 @@
         <v>Monday</v>
       </c>
       <c r="K17" t="str">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -998,7 +998,7 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H18">
-        <v>129.45205479452054</v>
+        <v>7184.58904109589</v>
       </c>
       <c r="I18" t="str">
         <v>1/12/2021</v>
@@ -1007,7 +1007,7 @@
         <v>Tuesday</v>
       </c>
       <c r="K18" t="str">
-        <v>6</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19">
@@ -1033,7 +1033,7 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H19">
-        <v>21.575342465753423</v>
+        <v>64.72602739726027</v>
       </c>
       <c r="I19" t="str">
         <v>1/12/2021</v>
@@ -1042,7 +1042,7 @@
         <v>Tuesday</v>
       </c>
       <c r="K19" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1068,7 +1068,7 @@
         <v>0.4191780821917808</v>
       </c>
       <c r="H20">
-        <v>85.50228310502284</v>
+        <v>0</v>
       </c>
       <c r="I20" t="str">
         <v>1/12/2021</v>
@@ -1077,7 +1077,7 @@
         <v>Tuesday</v>
       </c>
       <c r="K20" t="str">
-        <v>7</v>
+        <v/>
       </c>
     </row>
     <row r="21">
@@ -1103,7 +1103,7 @@
         <v>0.2465753424657534</v>
       </c>
       <c r="H21">
-        <v>50.34246575342466</v>
+        <v>21.575342465753426</v>
       </c>
       <c r="I21" t="str">
         <v>1/12/2021</v>
@@ -1112,7 +1112,7 @@
         <v>Tuesday</v>
       </c>
       <c r="K21" t="str">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1138,7 +1138,7 @@
         <v>0.14520547945205478</v>
       </c>
       <c r="H22">
-        <v>25.34246575342466</v>
+        <v>0</v>
       </c>
       <c r="I22" t="str">
         <v>1/12/2021</v>
@@ -1147,7 +1147,7 @@
         <v>Tuesday</v>
       </c>
       <c r="K22" t="str">
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="23">
@@ -1173,7 +1173,7 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="H23">
-        <v>4.5662100456621</v>
+        <v>0</v>
       </c>
       <c r="I23" t="str">
         <v>1/12/2021</v>
@@ -1182,7 +1182,7 @@
         <v>Tuesday</v>
       </c>
       <c r="K23" t="str">
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="24">
@@ -1208,7 +1208,7 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="H24">
-        <v>9.589041095890412</v>
+        <v>2.397260273972603</v>
       </c>
       <c r="I24" t="str">
         <v>1/12/2021</v>
@@ -1217,7 +1217,7 @@
         <v>Tuesday</v>
       </c>
       <c r="K24" t="str">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1243,7 +1243,7 @@
         <v>0.010958904109589041</v>
       </c>
       <c r="H25">
-        <v>8.21917808219178</v>
+        <v>0</v>
       </c>
       <c r="I25" t="str">
         <v>1/12/2021</v>
@@ -1252,7 +1252,7 @@
         <v>Tuesday</v>
       </c>
       <c r="K25" t="str">
-        <v>24</v>
+        <v/>
       </c>
     </row>
     <row r="26">
@@ -1278,7 +1278,7 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H26">
-        <v>151.02739726027397</v>
+        <v>0</v>
       </c>
       <c r="I26" t="str">
         <v>2/12/2021</v>
@@ -1287,7 +1287,7 @@
         <v>Wednesday</v>
       </c>
       <c r="K26" t="str">
-        <v>7</v>
+        <v/>
       </c>
     </row>
     <row r="27">
@@ -1313,7 +1313,7 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H27">
-        <v>21.575342465753423</v>
+        <v>0</v>
       </c>
       <c r="I27" t="str">
         <v>2/12/2021</v>
@@ -1322,7 +1322,7 @@
         <v>Wednesday</v>
       </c>
       <c r="K27" t="str">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="28">
@@ -1348,7 +1348,7 @@
         <v>0.4191780821917808</v>
       </c>
       <c r="H28">
-        <v>146.57534246575344</v>
+        <v>390.8675799086758</v>
       </c>
       <c r="I28" t="str">
         <v>2/12/2021</v>
@@ -1357,7 +1357,7 @@
         <v>Wednesday</v>
       </c>
       <c r="K28" t="str">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -1383,7 +1383,7 @@
         <v>0.2465753424657534</v>
       </c>
       <c r="H29">
-        <v>50.34246575342466</v>
+        <v>2322.9452054794524</v>
       </c>
       <c r="I29" t="str">
         <v>2/12/2021</v>
@@ -1392,7 +1392,7 @@
         <v>Wednesday</v>
       </c>
       <c r="K29" t="str">
-        <v>7</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30">
@@ -1418,7 +1418,7 @@
         <v>0.14520547945205478</v>
       </c>
       <c r="H30">
-        <v>25.34246575342466</v>
+        <v>8.447488584474886</v>
       </c>
       <c r="I30" t="str">
         <v>2/12/2021</v>
@@ -1427,7 +1427,7 @@
         <v>Wednesday</v>
       </c>
       <c r="K30" t="str">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1453,7 +1453,7 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="H31">
-        <v>2.28310502283105</v>
+        <v>737.4429223744293</v>
       </c>
       <c r="I31" t="str">
         <v>2/12/2021</v>
@@ -1462,7 +1462,7 @@
         <v>Wednesday</v>
       </c>
       <c r="K31" t="str">
-        <v>1</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32">
@@ -1488,7 +1488,7 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="H32">
-        <v>9.589041095890412</v>
+        <v>1.5981735159817352</v>
       </c>
       <c r="I32" t="str">
         <v>2/12/2021</v>
@@ -1497,7 +1497,7 @@
         <v>Wednesday</v>
       </c>
       <c r="K32" t="str">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1523,7 +1523,7 @@
         <v>0.010958904109589041</v>
       </c>
       <c r="H33">
-        <v>8.21917808219178</v>
+        <v>1.0273972602739725</v>
       </c>
       <c r="I33" t="str">
         <v>2/12/2021</v>
@@ -1532,7 +1532,7 @@
         <v>Wednesday</v>
       </c>
       <c r="K33" t="str">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1558,7 +1558,7 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H34">
-        <v>129.45205479452054</v>
+        <v>43.150684931506845</v>
       </c>
       <c r="I34" t="str">
         <v>3/12/2021</v>
@@ -1567,7 +1567,7 @@
         <v>Thursday</v>
       </c>
       <c r="K34" t="str">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1593,7 +1593,7 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H35">
-        <v>21.575342465753423</v>
+        <v>690.4109589041095</v>
       </c>
       <c r="I35" t="str">
         <v>3/12/2021</v>
@@ -1602,7 +1602,7 @@
         <v>Thursday</v>
       </c>
       <c r="K35" t="str">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -1628,7 +1628,7 @@
         <v>0.4191780821917808</v>
       </c>
       <c r="H36">
-        <v>146.57534246575344</v>
+        <v>36.64383561643836</v>
       </c>
       <c r="I36" t="str">
         <v>3/12/2021</v>
@@ -1637,7 +1637,7 @@
         <v>Thursday</v>
       </c>
       <c r="K36" t="str">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1663,7 +1663,7 @@
         <v>0.2465753424657534</v>
       </c>
       <c r="H37">
-        <v>50.34246575342466</v>
+        <v>14.383561643835616</v>
       </c>
       <c r="I37" t="str">
         <v>3/12/2021</v>
@@ -1672,7 +1672,7 @@
         <v>Thursday</v>
       </c>
       <c r="K37" t="str">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1698,7 +1698,7 @@
         <v>0.14520547945205478</v>
       </c>
       <c r="H38">
-        <v>25.34246575342466</v>
+        <v>12.67123287671233</v>
       </c>
       <c r="I38" t="str">
         <v>3/12/2021</v>
@@ -1707,7 +1707,7 @@
         <v>Thursday</v>
       </c>
       <c r="K38" t="str">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1733,7 +1733,7 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="H39">
-        <v>2.28310502283105</v>
+        <v>4.5662100456621</v>
       </c>
       <c r="I39" t="str">
         <v>3/12/2021</v>
@@ -1742,7 +1742,7 @@
         <v>Thursday</v>
       </c>
       <c r="K39" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1768,7 +1768,7 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="H40">
-        <v>9.589041095890412</v>
+        <v>2.397260273972603</v>
       </c>
       <c r="I40" t="str">
         <v>3/12/2021</v>
@@ -1777,7 +1777,7 @@
         <v>Thursday</v>
       </c>
       <c r="K40" t="str">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1803,7 +1803,7 @@
         <v>0.010958904109589041</v>
       </c>
       <c r="H41">
-        <v>8.21917808219178</v>
+        <v>0.6849315068493149</v>
       </c>
       <c r="I41" t="str">
         <v>3/12/2021</v>
@@ -1812,7 +1812,7 @@
         <v>Thursday</v>
       </c>
       <c r="K41" t="str">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1838,7 +1838,7 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H42">
-        <v>151.02739726027397</v>
+        <v>64.72602739726027</v>
       </c>
       <c r="I42" t="str">
         <v>4/12/2021</v>
@@ -1847,7 +1847,7 @@
         <v>Friday</v>
       </c>
       <c r="K42" t="str">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1873,7 +1873,7 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H43">
-        <v>21.575342465753423</v>
+        <v>43.150684931506845</v>
       </c>
       <c r="I43" t="str">
         <v>4/12/2021</v>
@@ -1882,7 +1882,7 @@
         <v>Friday</v>
       </c>
       <c r="K43" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1908,7 +1908,7 @@
         <v>0.4191780821917808</v>
       </c>
       <c r="H44">
-        <v>73.28767123287672</v>
+        <v>36.64383561643836</v>
       </c>
       <c r="I44" t="str">
         <v>4/12/2021</v>
@@ -1917,7 +1917,7 @@
         <v>Friday</v>
       </c>
       <c r="K44" t="str">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1943,7 +1943,7 @@
         <v>0.2465753424657534</v>
       </c>
       <c r="H45">
-        <v>50.34246575342466</v>
+        <v>14.383561643835616</v>
       </c>
       <c r="I45" t="str">
         <v>4/12/2021</v>
@@ -1952,7 +1952,7 @@
         <v>Friday</v>
       </c>
       <c r="K45" t="str">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1978,7 +1978,7 @@
         <v>0.14520547945205478</v>
       </c>
       <c r="H46">
-        <v>25.34246575342466</v>
+        <v>12.67123287671233</v>
       </c>
       <c r="I46" t="str">
         <v>4/12/2021</v>
@@ -1987,7 +1987,7 @@
         <v>Friday</v>
       </c>
       <c r="K46" t="str">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2013,7 +2013,7 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="H47">
-        <v>2.28310502283105</v>
+        <v>4.5662100456621</v>
       </c>
       <c r="I47" t="str">
         <v>4/12/2021</v>
@@ -2022,7 +2022,7 @@
         <v>Friday</v>
       </c>
       <c r="K47" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2048,7 +2048,7 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="H48">
-        <v>9.589041095890412</v>
+        <v>2.397260273972603</v>
       </c>
       <c r="I48" t="str">
         <v>4/12/2021</v>
@@ -2057,7 +2057,7 @@
         <v>Friday</v>
       </c>
       <c r="K48" t="str">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2083,7 +2083,7 @@
         <v>0.010958904109589041</v>
       </c>
       <c r="H49">
-        <v>8.21917808219178</v>
+        <v>0.6849315068493149</v>
       </c>
       <c r="I49" t="str">
         <v>4/12/2021</v>
@@ -2092,7 +2092,7 @@
         <v>Friday</v>
       </c>
       <c r="K49" t="str">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2118,7 +2118,7 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H50">
-        <v>151.02739726027397</v>
+        <v>64.72602739726027</v>
       </c>
       <c r="I50" t="str">
         <v>5/12/2021</v>
@@ -2127,7 +2127,7 @@
         <v>Saturday</v>
       </c>
       <c r="K50" t="str">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -2153,7 +2153,7 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="H51">
-        <v>21.575342465753423</v>
+        <v>43.150684931506845</v>
       </c>
       <c r="I51" t="str">
         <v>5/12/2021</v>
@@ -2162,7 +2162,7 @@
         <v>Saturday</v>
       </c>
       <c r="K51" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -2188,7 +2188,7 @@
         <v>0.4191780821917808</v>
       </c>
       <c r="H52">
-        <v>146.57534246575344</v>
+        <v>36.64383561643836</v>
       </c>
       <c r="I52" t="str">
         <v>5/12/2021</v>
@@ -2197,7 +2197,7 @@
         <v>Saturday</v>
       </c>
       <c r="K52" t="str">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2223,7 +2223,7 @@
         <v>0.2465753424657534</v>
       </c>
       <c r="H53">
-        <v>50.34246575342466</v>
+        <v>14.383561643835616</v>
       </c>
       <c r="I53" t="str">
         <v>5/12/2021</v>
@@ -2232,7 +2232,7 @@
         <v>Saturday</v>
       </c>
       <c r="K53" t="str">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2258,7 +2258,7 @@
         <v>0.14520547945205478</v>
       </c>
       <c r="H54">
-        <v>25.34246575342466</v>
+        <v>12.67123287671233</v>
       </c>
       <c r="I54" t="str">
         <v>5/12/2021</v>
@@ -2267,7 +2267,7 @@
         <v>Saturday</v>
       </c>
       <c r="K54" t="str">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2293,7 +2293,7 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="H55">
-        <v>2.28310502283105</v>
+        <v>4.5662100456621</v>
       </c>
       <c r="I55" t="str">
         <v>5/12/2021</v>
@@ -2302,7 +2302,7 @@
         <v>Saturday</v>
       </c>
       <c r="K55" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2328,7 +2328,7 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="H56">
-        <v>9.589041095890412</v>
+        <v>2.397260273972603</v>
       </c>
       <c r="I56" t="str">
         <v>5/12/2021</v>
@@ -2337,7 +2337,7 @@
         <v>Saturday</v>
       </c>
       <c r="K56" t="str">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -2363,7 +2363,7 @@
         <v>0.010958904109589041</v>
       </c>
       <c r="H57">
-        <v>8.21917808219178</v>
+        <v>0.6849315068493149</v>
       </c>
       <c r="I57" t="str">
         <v>5/12/2021</v>
@@ -2372,7 +2372,7 @@
         <v>Saturday</v>
       </c>
       <c r="K57" t="str">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
